--- a/data/trans_orig/Q25_A_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q25_A_R-Dificultad-trans_orig.xlsx
@@ -672,7 +672,7 @@
         <v>14.48055707464662</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>6.156089270112949</v>
+        <v>6.156089270112951</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>7.25296354659842</v>
@@ -681,10 +681,10 @@
         <v>7.211325143422936</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>9.478447921193892</v>
+        <v>9.478447921193894</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>9.284321002969889</v>
+        <v>9.284321002969886</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>9.444575116965163</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>9.131234102223633</v>
+        <v>9.186047002610589</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>9.209202846902162</v>
+        <v>9.320295649079382</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11.1169361178955</v>
+        <v>11.01842760433521</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12.41030088602649</v>
+        <v>12.60931403726504</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.842476043091979</v>
+        <v>4.721241872498959</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.974717193788564</v>
+        <v>6.079858133374907</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.962744323462566</v>
+        <v>5.818661408965565</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>7.445516685922263</v>
+        <v>7.404774437004564</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>8.056299647268959</v>
+        <v>8.126550820005695</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8.303734255944827</v>
+        <v>8.515482245528734</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9.678748154592361</v>
+        <v>9.65748052527896</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>11.03661679897602</v>
+        <v>11.17373317033989</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.52163256387936</v>
+        <v>12.76168076877145</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.10321887714343</v>
+        <v>12.11002303327686</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.95878039604652</v>
+        <v>14.02642513992032</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.5861265587957</v>
+        <v>16.7260370418855</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.055494513734576</v>
+        <v>8.039619482175501</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>8.765017486379652</v>
+        <v>8.761892983556969</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.079996402283669</v>
+        <v>8.874048105052971</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>12.17278972459907</v>
+        <v>12.25227597269122</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>10.66651923273206</v>
+        <v>10.7415553442284</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10.565074881954</v>
+        <v>10.53680069595281</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11.85207255935541</v>
+        <v>11.96116979536517</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>14.40670104045647</v>
+        <v>14.29696496388706</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>13.22607292777696</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15.71733607387867</v>
+        <v>15.71733607387866</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>6.923103477279629</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>9.24981024225432</v>
+        <v>9.322897873272646</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>9.533021065481812</v>
+        <v>9.675292352515699</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11.72651347108684</v>
+        <v>11.5452199352605</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14.06579409899325</v>
+        <v>13.98296089509041</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>5.655590138152053</v>
+        <v>5.744408882715392</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.23722136211154</v>
+        <v>6.351263924597334</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>6.093568276994181</v>
+        <v>6.156519555877931</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>10.06005165622062</v>
+        <v>10.07635941050089</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>8.64736066798986</v>
+        <v>8.563341992828482</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8.764658153476452</v>
+        <v>8.87425044041421</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9.774531335234339</v>
+        <v>9.953862913072889</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>13.15844223900996</v>
+        <v>13.20223021141001</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.6522476677258</v>
+        <v>11.51016574331903</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.18421109532925</v>
+        <v>12.30278227311872</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14.97623381361459</v>
+        <v>14.87116401925955</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.424015312035</v>
+        <v>17.29976289715028</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>8.878289242604735</v>
+        <v>8.908029650174958</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>9.231758736637344</v>
+        <v>9.341216281030839</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>8.822674633283683</v>
+        <v>8.615672149310884</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>14.03167016531974</v>
+        <v>14.01172185943526</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>10.53277011298453</v>
+        <v>10.43583462782391</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>10.85460771989173</v>
+        <v>11.00805542645402</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12.11712844545836</v>
+        <v>12.25510618177973</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>15.77591436407354</v>
+        <v>15.84866797860378</v>
       </c>
     </row>
     <row r="10">
@@ -944,7 +944,7 @@
         <v>16.75112480808345</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>6.933189855543096</v>
+        <v>6.933189855543097</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>8.007564658009402</v>
@@ -956,7 +956,7 @@
         <v>12.94956263706422</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>9.331191125360407</v>
+        <v>9.331191125360405</v>
       </c>
       <c r="L10" s="5" t="n">
         <v>11.58586095650548</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>9.114173803905757</v>
+        <v>9.221531391741726</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>11.39433285617124</v>
+        <v>11.40763102955803</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10.98228115404432</v>
+        <v>10.96181750051405</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14.87869367291676</v>
+        <v>14.92501866003941</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>5.632119857646131</v>
+        <v>5.578531062972365</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.755759222234973</v>
+        <v>6.670714981086471</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>9.048333036929954</v>
+        <v>8.998907743436828</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>11.12423111407412</v>
+        <v>11.07632616686574</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>8.42920116050483</v>
+        <v>8.450173492615113</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10.24692498296252</v>
+        <v>10.28007461668215</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10.87415112577462</v>
+        <v>10.57113399674892</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>14.12391467420491</v>
+        <v>14.07524043501431</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.49960599833032</v>
+        <v>11.44601994283652</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.01119361432928</v>
+        <v>15.02602817716127</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.19820704782535</v>
+        <v>14.19543248781568</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.57134436004663</v>
+        <v>18.77790733534111</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>8.866943361378063</v>
+        <v>8.915425230466377</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>9.459454290286876</v>
+        <v>9.616022017311673</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>14.5197559513553</v>
+        <v>14.68140529677445</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>15.07007012368897</v>
+        <v>15.15019842470246</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>10.45473567442257</v>
+        <v>10.44703393363808</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12.97675352223098</v>
+        <v>12.90141895835228</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13.57546334878532</v>
+        <v>13.38281669677629</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>16.7681475040672</v>
+        <v>16.85121370137102</v>
       </c>
     </row>
     <row r="13">
@@ -1077,13 +1077,13 @@
         <v>12.13597125970107</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17.04026905207355</v>
+        <v>17.04026905207356</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>7.609972091540572</v>
+        <v>7.609972091540574</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>7.782238857872438</v>
+        <v>7.782238857872439</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>10.54709340974113</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>10.12336726350546</v>
+        <v>10.45011820605435</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>13.29620313844135</v>
+        <v>13.44051133173488</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10.41084645978575</v>
+        <v>10.32887258550246</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15.38227158599517</v>
+        <v>15.41811697412036</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>5.661215660877069</v>
+        <v>5.637128117561038</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>5.809246901505653</v>
+        <v>5.618194497675128</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>8.382936392408729</v>
+        <v>8.43558451239717</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>12.36512440109616</v>
+        <v>12.50628342876819</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>9.297440481714622</v>
+        <v>9.334236043539821</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11.35972403182587</v>
+        <v>11.38118742978913</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10.05483289923607</v>
+        <v>10.18991133772433</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>14.73356972380018</v>
+        <v>14.88929947119355</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>15.33762274253399</v>
+        <v>15.60774153644845</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>17.83710953193716</v>
+        <v>18.04945576627743</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.18234124805848</v>
+        <v>14.00635333034813</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>18.73916232776695</v>
+        <v>18.80660757053091</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>10.55660343852437</v>
+        <v>10.58764012028324</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>10.5726957195944</v>
+        <v>10.27494652303719</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>13.4509207276857</v>
+        <v>13.33680294179306</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>15.97896915529436</v>
+        <v>15.96543524462254</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>13.04829846825894</v>
+        <v>13.06906674337724</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>15.03254772786558</v>
+        <v>15.08482125219358</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>13.03374334884566</v>
+        <v>13.05618028182391</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>17.27071925640681</v>
+        <v>17.38794309235612</v>
       </c>
     </row>
     <row r="16">
@@ -1213,19 +1213,19 @@
         <v>12.61141184884407</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16.23488226441852</v>
+        <v>16.23488226441851</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>6.863506547620305</v>
+        <v>6.863506547620304</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>7.652164636510333</v>
+        <v>7.652164636510334</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>8.849965827347232</v>
+        <v>8.849965827347233</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>12.69077427447583</v>
+        <v>12.69077427447582</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>9.578506134829594</v>
@@ -1237,7 +1237,7 @@
         <v>11.27540716472411</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>14.97816629699648</v>
+        <v>14.97816629699647</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>9.918848323432915</v>
+        <v>9.939008917316352</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>11.24133355606132</v>
+        <v>11.30538108220749</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11.77042693956025</v>
+        <v>11.78720524408363</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15.39080682488241</v>
+        <v>15.32755788715385</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>6.101813875038498</v>
+        <v>5.975577709716042</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.912673003303886</v>
+        <v>6.918118154744706</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>8.008306931207724</v>
+        <v>7.944847478576005</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>11.81251995908327</v>
+        <v>11.72860831673825</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>9.048138808991949</v>
+        <v>9.026077781557772</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10.05503616294043</v>
+        <v>10.0906390223997</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10.65171302152735</v>
+        <v>10.63418519851624</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>14.28870448559224</v>
+        <v>14.37036096135975</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.39624674432</v>
+        <v>11.42934208438449</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.94796195786341</v>
+        <v>12.96027247208423</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.36798488810593</v>
+        <v>13.36624182499882</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.17902601177707</v>
+        <v>17.09955888520016</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.87931709560416</v>
+        <v>7.84022790168802</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.45142773442781</v>
+        <v>8.476585379375621</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>10.06391569717336</v>
+        <v>9.974853082046105</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>13.70257068596659</v>
+        <v>13.7294832355172</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>10.22312871921442</v>
+        <v>10.15713496994344</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>11.28282354256751</v>
+        <v>11.28978003672138</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>11.93669397487457</v>
+        <v>11.93192152874339</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>15.61387180863343</v>
+        <v>15.74264228214796</v>
       </c>
     </row>
     <row r="19">
